--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2365093333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N2">
-        <v>0.7095279999999999</v>
+        <v>1.374487</v>
       </c>
       <c r="O2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q2">
-        <v>0.1397718127946667</v>
+        <v>0.3149580453812222</v>
       </c>
       <c r="R2">
-        <v>1.257946315152</v>
+        <v>2.834622408431</v>
       </c>
       <c r="S2">
-        <v>0.0008182419370012133</v>
+        <v>0.02472094267696881</v>
       </c>
       <c r="T2">
-        <v>0.0008182419370012132</v>
+        <v>0.02472094267696881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07510100000000001</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
         <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q3">
-        <v>0.04438303877800001</v>
+        <v>0.05162725620433334</v>
       </c>
       <c r="R3">
-        <v>0.3994473490020001</v>
+        <v>0.464645305839</v>
       </c>
       <c r="S3">
-        <v>0.0002598239437093172</v>
+        <v>0.0040522046028439</v>
       </c>
       <c r="T3">
-        <v>0.0002598239437093171</v>
+        <v>0.0040522046028439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006358</v>
+        <v>3.786578</v>
       </c>
       <c r="N4">
-        <v>0.019074</v>
+        <v>11.359734</v>
       </c>
       <c r="O4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q4">
-        <v>0.003757438124</v>
+        <v>2.603036344971334</v>
       </c>
       <c r="R4">
-        <v>0.033816943116</v>
+        <v>23.427327104742</v>
       </c>
       <c r="S4">
-        <v>2.199651980804301E-05</v>
+        <v>0.2043113780193</v>
       </c>
       <c r="T4">
-        <v>2.199651980804301E-05</v>
+        <v>0.2043113780193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.590978</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H5">
-        <v>1.772934</v>
+        <v>1.404332</v>
       </c>
       <c r="I5">
-        <v>0.1360667523977957</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J5">
-        <v>0.1360667523977957</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>38.91081433333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N5">
-        <v>116.732443</v>
+        <v>1.374487</v>
       </c>
       <c r="O5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q5">
-        <v>22.99543523308466</v>
+        <v>0.2144706752982223</v>
       </c>
       <c r="R5">
-        <v>206.958917097762</v>
+        <v>1.930236077684</v>
       </c>
       <c r="S5">
-        <v>0.1346181972680482</v>
+        <v>0.01683372546816752</v>
       </c>
       <c r="T5">
-        <v>0.1346181972680482</v>
+        <v>0.01683372546816752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.590978</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H6">
-        <v>1.772934</v>
+        <v>1.404332</v>
       </c>
       <c r="I6">
-        <v>0.1360667523977957</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J6">
-        <v>0.1360667523977957</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1007303333333333</v>
+        <v>0.075101</v>
       </c>
       <c r="N6">
-        <v>0.302191</v>
+        <v>0.225303</v>
       </c>
       <c r="O6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q6">
-        <v>0.05952941093266666</v>
+        <v>0.03515557917733334</v>
       </c>
       <c r="R6">
-        <v>0.535764698394</v>
+        <v>0.316400212596</v>
       </c>
       <c r="S6">
-        <v>0.000348492729228915</v>
+        <v>0.002759348650918158</v>
       </c>
       <c r="T6">
-        <v>0.000348492729228915</v>
+        <v>0.002759348650918158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>1.404332</v>
       </c>
       <c r="I7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2365093333333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N7">
-        <v>0.7095279999999999</v>
+        <v>11.359734</v>
       </c>
       <c r="O7">
-        <v>0.006013533229697845</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P7">
-        <v>0.006013533229697844</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q7">
-        <v>0.1107125416995556</v>
+        <v>1.772537551965333</v>
       </c>
       <c r="R7">
-        <v>0.996412875296</v>
+        <v>15.952837967688</v>
       </c>
       <c r="S7">
-        <v>0.0006481252747551731</v>
+        <v>0.1391258291620135</v>
       </c>
       <c r="T7">
-        <v>0.0006481252747551731</v>
+        <v>0.1391258291620135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4681106666666667</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H8">
-        <v>1.404332</v>
+        <v>5.274976</v>
       </c>
       <c r="I8">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J8">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07510100000000001</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N8">
-        <v>0.225303</v>
+        <v>1.374487</v>
       </c>
       <c r="O8">
-        <v>0.001909532925058086</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P8">
-        <v>0.001909532925058086</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q8">
-        <v>0.03515557917733334</v>
+        <v>0.8055984374791111</v>
       </c>
       <c r="R8">
-        <v>0.3164002125960001</v>
+        <v>7.250385937311999</v>
       </c>
       <c r="S8">
-        <v>0.000205805223723609</v>
+        <v>0.06323112898885194</v>
       </c>
       <c r="T8">
-        <v>0.0002058052237236089</v>
+        <v>0.06323112898885193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4681106666666667</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H9">
-        <v>1.404332</v>
+        <v>5.274976</v>
       </c>
       <c r="I9">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J9">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006358</v>
+        <v>0.075101</v>
       </c>
       <c r="N9">
-        <v>0.019074</v>
+        <v>0.225303</v>
       </c>
       <c r="O9">
-        <v>0.0001616597693442073</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P9">
-        <v>0.0001616597693442073</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q9">
-        <v>0.002976247618666667</v>
+        <v>0.1320519908586667</v>
       </c>
       <c r="R9">
-        <v>0.026786228568</v>
+        <v>1.188467917728</v>
       </c>
       <c r="S9">
-        <v>1.74233314128268E-05</v>
+        <v>0.01036471283800815</v>
       </c>
       <c r="T9">
-        <v>1.74233314128268E-05</v>
+        <v>0.01036471283800815</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4681106666666667</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H10">
-        <v>1.404332</v>
+        <v>5.274976</v>
       </c>
       <c r="I10">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J10">
-        <v>0.1077777822120289</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.91081433333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N10">
-        <v>116.732443</v>
+        <v>11.359734</v>
       </c>
       <c r="O10">
-        <v>0.9893540846369833</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P10">
-        <v>0.9893540846369833</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q10">
-        <v>18.21456723811956</v>
+        <v>6.658036024042667</v>
       </c>
       <c r="R10">
-        <v>163.931105143076</v>
+        <v>59.92232421638399</v>
       </c>
       <c r="S10">
-        <v>0.106630389064586</v>
+        <v>0.5225868311835958</v>
       </c>
       <c r="T10">
-        <v>0.106630389064586</v>
+        <v>0.5225868311835957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4681106666666667</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H11">
-        <v>1.404332</v>
+        <v>0.046231</v>
       </c>
       <c r="I11">
-        <v>0.1077777822120289</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J11">
-        <v>0.1077777822120289</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1007303333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N11">
-        <v>0.302191</v>
+        <v>1.374487</v>
       </c>
       <c r="O11">
-        <v>0.002561189438916605</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P11">
-        <v>0.002561189438916605</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q11">
-        <v>0.04715294349022223</v>
+        <v>0.007060434277444444</v>
       </c>
       <c r="R11">
-        <v>0.424376491412</v>
+        <v>0.06354390849700001</v>
       </c>
       <c r="S11">
-        <v>0.0002760393175513024</v>
+        <v>0.0005541709240541784</v>
       </c>
       <c r="T11">
-        <v>0.0002760393175513024</v>
+        <v>0.0005541709240541784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.02272533333333333</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H12">
-        <v>0.068176</v>
+        <v>0.046231</v>
       </c>
       <c r="I12">
-        <v>0.00523227988829371</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J12">
-        <v>0.00523227988829371</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2365093333333333</v>
+        <v>0.075101</v>
       </c>
       <c r="N12">
-        <v>0.7095279999999999</v>
+        <v>0.225303</v>
       </c>
       <c r="O12">
-        <v>0.006013533229697845</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P12">
-        <v>0.006013533229697844</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q12">
-        <v>0.005374753436444444</v>
+        <v>0.001157331443666667</v>
       </c>
       <c r="R12">
-        <v>0.04837278092799999</v>
+        <v>0.010415982993</v>
       </c>
       <c r="S12">
-        <v>3.146448897533395E-05</v>
+        <v>9.083852499309091E-05</v>
       </c>
       <c r="T12">
-        <v>3.146448897533395E-05</v>
+        <v>9.083852499309094E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,51 +1222,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.02272533333333333</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H13">
-        <v>0.068176</v>
+        <v>0.046231</v>
       </c>
       <c r="I13">
-        <v>0.00523227988829371</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J13">
-        <v>0.00523227988829371</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07510100000000001</v>
+        <v>3.786578</v>
       </c>
       <c r="N13">
-        <v>0.225303</v>
+        <v>11.359734</v>
       </c>
       <c r="O13">
-        <v>0.001909532925058086</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P13">
-        <v>0.001909532925058086</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q13">
-        <v>0.001706695258666667</v>
+        <v>0.05835242917266666</v>
       </c>
       <c r="R13">
-        <v>0.015360257328</v>
+        <v>0.5251718625539999</v>
       </c>
       <c r="S13">
-        <v>9.991210719816086E-06</v>
+        <v>0.004580060988419439</v>
       </c>
       <c r="T13">
-        <v>9.991210719816082E-06</v>
+        <v>0.004580060988419439</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,51 +1284,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02272533333333333</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H14">
-        <v>0.068176</v>
+        <v>0.060067</v>
       </c>
       <c r="I14">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J14">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.006358</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N14">
-        <v>0.019074</v>
+        <v>1.374487</v>
       </c>
       <c r="O14">
-        <v>0.0001616597693442073</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P14">
-        <v>0.0001616597693442073</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q14">
-        <v>0.0001444876693333333</v>
+        <v>0.009173478958777778</v>
       </c>
       <c r="R14">
-        <v>0.001300389024</v>
+        <v>0.082561310629</v>
       </c>
       <c r="S14">
-        <v>8.458491598858957E-07</v>
+        <v>0.0007200230342229746</v>
       </c>
       <c r="T14">
-        <v>8.458491598858957E-07</v>
+        <v>0.0007200230342229746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,51 +1346,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02272533333333333</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H15">
-        <v>0.068176</v>
+        <v>0.060067</v>
       </c>
       <c r="I15">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J15">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>38.91081433333333</v>
+        <v>0.075101</v>
       </c>
       <c r="N15">
-        <v>116.732443</v>
+        <v>0.225303</v>
       </c>
       <c r="O15">
-        <v>0.9893540846369833</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P15">
-        <v>0.9893540846369833</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q15">
-        <v>0.8842612259964443</v>
+        <v>0.001503697255666667</v>
       </c>
       <c r="R15">
-        <v>7.958351033967999</v>
+        <v>0.013533275301</v>
       </c>
       <c r="S15">
-        <v>0.00517657747944732</v>
+        <v>0.0001180246518734181</v>
       </c>
       <c r="T15">
-        <v>0.00517657747944732</v>
+        <v>0.0001180246518734181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,666 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02272533333333333</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H16">
-        <v>0.068176</v>
+        <v>0.060067</v>
       </c>
       <c r="I16">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J16">
-        <v>0.00523227988829371</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1007303333333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N16">
-        <v>0.302191</v>
+        <v>11.359734</v>
       </c>
       <c r="O16">
-        <v>0.002561189438916605</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P16">
-        <v>0.002561189438916605</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q16">
-        <v>0.002289130401777778</v>
+        <v>0.07581612690866667</v>
       </c>
       <c r="R16">
-        <v>0.020602173616</v>
+        <v>0.682345142178</v>
       </c>
       <c r="S16">
-        <v>1.340085999135361E-05</v>
+        <v>0.005950780285769081</v>
       </c>
       <c r="T16">
-        <v>1.340085999135361E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.157754</v>
-      </c>
-      <c r="H17">
-        <v>9.473262</v>
-      </c>
-      <c r="I17">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="J17">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.2365093333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.7095279999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.006013533229697845</v>
-      </c>
-      <c r="P17">
-        <v>0.006013533229697844</v>
-      </c>
-      <c r="Q17">
-        <v>0.7468382933706667</v>
-      </c>
-      <c r="R17">
-        <v>6.721544640335999</v>
-      </c>
-      <c r="S17">
-        <v>0.004372086185159735</v>
-      </c>
-      <c r="T17">
-        <v>0.004372086185159734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>3.157754</v>
-      </c>
-      <c r="H18">
-        <v>9.473262</v>
-      </c>
-      <c r="I18">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="J18">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.07510100000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.225303</v>
-      </c>
-      <c r="O18">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="P18">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="Q18">
-        <v>0.2371504831540001</v>
-      </c>
-      <c r="R18">
-        <v>2.134354348386</v>
-      </c>
-      <c r="S18">
-        <v>0.001388309036112802</v>
-      </c>
-      <c r="T18">
-        <v>0.001388309036112801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.157754</v>
-      </c>
-      <c r="H19">
-        <v>9.473262</v>
-      </c>
-      <c r="I19">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="J19">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.006358</v>
-      </c>
-      <c r="N19">
-        <v>0.019074</v>
-      </c>
-      <c r="O19">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="P19">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="Q19">
-        <v>0.020076999932</v>
-      </c>
-      <c r="R19">
-        <v>0.180692999388</v>
-      </c>
-      <c r="S19">
-        <v>0.0001175333065019799</v>
-      </c>
-      <c r="T19">
-        <v>0.0001175333065019799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.157754</v>
-      </c>
-      <c r="H20">
-        <v>9.473262</v>
-      </c>
-      <c r="I20">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="J20">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N20">
-        <v>116.732443</v>
-      </c>
-      <c r="O20">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P20">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q20">
-        <v>122.8707796043407</v>
-      </c>
-      <c r="R20">
-        <v>1105.837016439066</v>
-      </c>
-      <c r="S20">
-        <v>0.7193011430137304</v>
-      </c>
-      <c r="T20">
-        <v>0.7193011430137304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.157754</v>
-      </c>
-      <c r="H21">
-        <v>9.473262</v>
-      </c>
-      <c r="I21">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="J21">
-        <v>0.7270411616864739</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.302191</v>
-      </c>
-      <c r="O21">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P21">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q21">
-        <v>0.3180816130046666</v>
-      </c>
-      <c r="R21">
-        <v>2.862734517042</v>
-      </c>
-      <c r="S21">
-        <v>0.001862090144969057</v>
-      </c>
-      <c r="T21">
-        <v>0.001862090144969057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.31118</v>
-      </c>
-      <c r="I22">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J22">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.2365093333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.7095279999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.006013533229697845</v>
-      </c>
-      <c r="P22">
-        <v>0.006013533229697844</v>
-      </c>
-      <c r="Q22">
-        <v>0.02453232478222222</v>
-      </c>
-      <c r="R22">
-        <v>0.22079092304</v>
-      </c>
-      <c r="S22">
-        <v>0.0001436153438063896</v>
-      </c>
-      <c r="T22">
-        <v>0.0001436153438063896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.31118</v>
-      </c>
-      <c r="I23">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J23">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.07510100000000001</v>
-      </c>
-      <c r="N23">
-        <v>0.225303</v>
-      </c>
-      <c r="O23">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="P23">
-        <v>0.001909532925058086</v>
-      </c>
-      <c r="Q23">
-        <v>0.007789976393333335</v>
-      </c>
-      <c r="R23">
-        <v>0.07010978754000001</v>
-      </c>
-      <c r="S23">
-        <v>4.560351079254238E-05</v>
-      </c>
-      <c r="T23">
-        <v>4.560351079254237E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.31118</v>
-      </c>
-      <c r="I24">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J24">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.006358</v>
-      </c>
-      <c r="N24">
-        <v>0.019074</v>
-      </c>
-      <c r="O24">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="P24">
-        <v>0.0001616597693442073</v>
-      </c>
-      <c r="Q24">
-        <v>0.0006594941466666667</v>
-      </c>
-      <c r="R24">
-        <v>0.00593544732</v>
-      </c>
-      <c r="S24">
-        <v>3.860762461471677E-06</v>
-      </c>
-      <c r="T24">
-        <v>3.860762461471677E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.31118</v>
-      </c>
-      <c r="I25">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J25">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N25">
-        <v>116.732443</v>
-      </c>
-      <c r="O25">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P25">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q25">
-        <v>4.036089068082222</v>
-      </c>
-      <c r="R25">
-        <v>36.32480161274</v>
-      </c>
-      <c r="S25">
-        <v>0.02362777781117134</v>
-      </c>
-      <c r="T25">
-        <v>0.02362777781117134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.31118</v>
-      </c>
-      <c r="I26">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J26">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.302191</v>
-      </c>
-      <c r="O26">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P26">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q26">
-        <v>0.01044842170888889</v>
-      </c>
-      <c r="R26">
-        <v>0.09403579538</v>
-      </c>
-      <c r="S26">
-        <v>6.11663871759771E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.11663871759771E-05</v>
+        <v>0.005950780285769081</v>
       </c>
     </row>
   </sheetData>
